--- a/Listes-Composants/Kopie von Commandes.xlsx
+++ b/Listes-Composants/Kopie von Commandes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/ProjetS4/Listes-Composants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC4C7E6F-8103-A346-9BDD-896FF0308097}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75A20F6F-8721-794D-B652-AF1915C594BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -69,22 +69,25 @@
     <t>http://www.conrad.fr/ce/fr/product/071604/Bouton-poussoir-rouge-chrome?ref=list</t>
   </si>
   <si>
-    <t xml:space="preserve">Solenoide </t>
-  </si>
-  <si>
     <t>https://www.gotronic.fr/art-solenoide-tubulaire-lz1335d-11898.htm</t>
   </si>
   <si>
-    <t xml:space="preserve">Servo </t>
-  </si>
-  <si>
     <t>https://www.gotronic.fr/art-servomoteur-hitec-hs422-294.htm</t>
+  </si>
+  <si>
+    <t>Solénoïde tubulaire LZ1335D</t>
+  </si>
+  <si>
+    <t>Servomoteur Hitec HS422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;_);[Red]\(#,##0.00\ &quot;€&quot;\)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -190,7 +193,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -200,6 +203,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -549,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,12 +626,18 @@
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <f t="shared" ref="E10:E25" si="0">C10*D10</f>
-        <v>0</v>
+      <c r="B10" s="4">
+        <v>35192</v>
+      </c>
+      <c r="C10" s="9">
+        <v>12.08</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f>C10*D10</f>
+        <v>12.08</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>11</v>
@@ -640,41 +651,53 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+        <f t="shared" ref="E10:E25" si="0">C11*D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>25177</v>
+      </c>
+      <c r="C12" s="9">
+        <v>11.58</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>11.58</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1618</v>
+      </c>
+      <c r="C13" s="10">
+        <v>13.58</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
+        <v>13.58</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,6 +1018,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{0345D006-A6FE-A64C-AB11-76B1D5BD625A}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{1691AE3E-08E8-3E49-AB27-030CE10138AD}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{ACFF262C-C5D1-9240-BBED-3104A830E510}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{3F99269C-8D6A-1345-B288-47C1E666171D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Listes-Composants/Kopie von Commandes.xlsx
+++ b/Listes-Composants/Kopie von Commandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/ProjetS4/Listes-Composants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75A20F6F-8721-794D-B652-AF1915C594BF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C80F6E8A-CC2F-4149-9FCA-8DA8634AD132}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Designation avec lien internet</t>
   </si>
@@ -54,19 +54,10 @@
     <t>Fournisseur 1 gotronic</t>
   </si>
   <si>
-    <t>Solenoide 12 Vcc LS2924BD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arduino Bluetooth HC-05 </t>
   </si>
   <si>
     <t>https://www.gotronic.fr/art-module-bluetooth-hc05-26097.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouton Poussoir </t>
-  </si>
-  <si>
-    <t>http://www.conrad.fr/ce/fr/product/071604/Bouton-poussoir-rouge-chrome?ref=list</t>
   </si>
   <si>
     <t>https://www.gotronic.fr/art-solenoide-tubulaire-lz1335d-11898.htm</t>
@@ -116,6 +107,7 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,6 +115,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,7 +548,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,26 +598,15 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>25195</v>
-      </c>
-      <c r="C9" s="3">
-        <v>13.25</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <f>C9*D9</f>
-        <v>13.25</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>35192</v>
@@ -640,27 +622,20 @@
         <v>12.08</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <f t="shared" ref="E10:E25" si="0">C11*D11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>25177</v>
@@ -672,16 +647,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E11:E25" si="0">C12*D12</f>
         <v>11.58</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>1618</v>
@@ -697,7 +672,7 @@
         <v>13.58</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1018,9 +993,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{0345D006-A6FE-A64C-AB11-76B1D5BD625A}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{1691AE3E-08E8-3E49-AB27-030CE10138AD}"/>
-    <hyperlink ref="F12" r:id="rId3" xr:uid="{ACFF262C-C5D1-9240-BBED-3104A830E510}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{3F99269C-8D6A-1345-B288-47C1E666171D}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{ACFF262C-C5D1-9240-BBED-3104A830E510}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{3F99269C-8D6A-1345-B288-47C1E666171D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Listes-Composants/Kopie von Commandes.xlsx
+++ b/Listes-Composants/Kopie von Commandes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/ProjetS4/Listes-Composants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C80F6E8A-CC2F-4149-9FCA-8DA8634AD132}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09595BDA-025E-6F48-AD9B-B95017D5F9E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Designation avec lien internet</t>
   </si>
@@ -63,20 +63,18 @@
     <t>https://www.gotronic.fr/art-solenoide-tubulaire-lz1335d-11898.htm</t>
   </si>
   <si>
-    <t>https://www.gotronic.fr/art-servomoteur-hitec-hs422-294.htm</t>
-  </si>
-  <si>
     <t>Solénoïde tubulaire LZ1335D</t>
   </si>
   <si>
-    <t>Servomoteur Hitec HS422</t>
+    <t>Arduino NANO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;_);[Red]\(#,##0\ &quot;€&quot;\)"/>
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;_);[Red]\(#,##0.00\ &quot;€&quot;\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -186,7 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -198,6 +196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -548,7 +547,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,16 +625,27 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>25952</v>
+      </c>
+      <c r="C11" s="11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <f>C11*D11</f>
+        <v>19</v>
+      </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>25177</v>
@@ -647,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" ref="E11:E25" si="0">C12*D12</f>
+        <f t="shared" ref="E12:E25" si="0">C12*D12</f>
         <v>11.58</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -655,25 +665,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1618</v>
-      </c>
-      <c r="C13" s="10">
-        <v>13.58</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>13.58</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -994,7 +991,6 @@
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{0345D006-A6FE-A64C-AB11-76B1D5BD625A}"/>
     <hyperlink ref="F12" r:id="rId2" xr:uid="{ACFF262C-C5D1-9240-BBED-3104A830E510}"/>
-    <hyperlink ref="F13" r:id="rId3" xr:uid="{3F99269C-8D6A-1345-B288-47C1E666171D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Listes-Composants/Kopie von Commandes.xlsx
+++ b/Listes-Composants/Kopie von Commandes.xlsx
@@ -5,16 +5,19 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/ProjetS4/Listes-Composants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{09595BDA-025E-6F48-AD9B-B95017D5F9E7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC730237-79D0-334B-BA7A-84145823AD8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="head_detail" localSheetId="0">Feuil1!$A$31</definedName>
+  </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Designation avec lien internet</t>
   </si>
@@ -42,31 +45,40 @@
     <t>Total HT</t>
   </si>
   <si>
-    <t>Fournisseur 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">COMMANDE/BESTELLISTE </t>
   </si>
   <si>
     <t>ETUDIANTS : Hollet, Fues, Kaufmann</t>
   </si>
   <si>
-    <t>Fournisseur 1 gotronic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arduino Bluetooth HC-05 </t>
   </si>
   <si>
     <t>https://www.gotronic.fr/art-module-bluetooth-hc05-26097.htm</t>
   </si>
   <si>
-    <t>https://www.gotronic.fr/art-solenoide-tubulaire-lz1335d-11898.htm</t>
-  </si>
-  <si>
-    <t>Solénoïde tubulaire LZ1335D</t>
-  </si>
-  <si>
-    <t>Arduino NANO</t>
+    <t>Arduino UNO</t>
+  </si>
+  <si>
+    <t>Module Mosfet Gravity DFR0457</t>
+  </si>
+  <si>
+    <t>http://www.conrad.fr/ce/fr/product/096656/Carte-relais-5-V-2-canaux-SMTRELAY02?ref=searchDetail</t>
+  </si>
+  <si>
+    <t>Fournisseur 2 Conrad</t>
+  </si>
+  <si>
+    <t>Fournisseur 1 Gotronic</t>
+  </si>
+  <si>
+    <t>096656 - 62</t>
+  </si>
+  <si>
+    <t>Carte relais 5 V 2 canaux SMTRELAY02</t>
+  </si>
+  <si>
+    <t>https://www.gotronic.fr/art-module-mosfet-gravity-dfr0457-26064.htm</t>
   </si>
 </sst>
 </file>
@@ -547,20 +559,20 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="59.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -568,12 +580,12 @@
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -605,7 +617,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
         <v>35192</v>
@@ -621,48 +633,48 @@
         <v>12.08</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>25952</v>
+        <v>35176</v>
       </c>
       <c r="C11" s="11">
-        <v>19</v>
+        <v>4.58</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="3">
         <f>C11*D11</f>
-        <v>19</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>4.58</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>25177</v>
+        <v>25950</v>
       </c>
       <c r="C12" s="9">
-        <v>11.58</v>
+        <v>16.25</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" ref="E12:E25" si="0">C12*D12</f>
-        <v>11.58</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="E12" s="3">
+        <f>C12*D12</f>
+        <v>16.25</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -678,7 +690,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E25" si="0">C14*D14</f>
         <v>0</v>
       </c>
     </row>
@@ -702,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -712,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -722,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -732,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -742,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -752,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -762,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -772,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -782,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -792,15 +804,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -817,17 +829,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
       <c r="E31" s="3">
         <f t="shared" ref="E31:E47" si="1">C31*D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -990,7 +1013,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{0345D006-A6FE-A64C-AB11-76B1D5BD625A}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{ACFF262C-C5D1-9240-BBED-3104A830E510}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
